--- a/ch2/resource/range.xlsx
+++ b/ch2/resource/range.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>컴퓨터</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -449,103 +449,48 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>87</v>
-      </c>
-      <c r="C3" t="n">
-        <v>61</v>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B14" t="n">
+        <v>42</v>
+      </c>
+      <c r="C14" t="n">
+        <v>84</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>96</v>
-      </c>
-      <c r="C4" t="n">
-        <v>61</v>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>8</v>
+      </c>
+      <c r="B15" t="n">
+        <v>39</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>78</v>
-      </c>
-      <c r="C5" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>92</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>32</v>
-      </c>
-      <c r="C7" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>42</v>
-      </c>
-      <c r="C8" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>39</v>
-      </c>
-      <c r="C9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="16">
+      <c r="A16" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B16" t="n">
         <v>94</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C16" t="n">
         <v>64</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>70</v>
-      </c>
-      <c r="C11" t="n">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/ch2/resource/range.xlsx
+++ b/ch2/resource/range.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>컴퓨터</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -443,54 +443,109 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14">
-      <c r="A14" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>33</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>84</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>32</v>
+      </c>
+      <c r="C5" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
         <v>7</v>
       </c>
-      <c r="B14" t="n">
-        <v>42</v>
-      </c>
-      <c r="C14" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>29</v>
+      </c>
+      <c r="C7" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>48</v>
+      </c>
+      <c r="C8" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B15" t="n">
-        <v>39</v>
-      </c>
-      <c r="C15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="B9" t="n">
+        <v>82</v>
+      </c>
+      <c r="C9" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="B16" t="n">
-        <v>94</v>
-      </c>
-      <c r="C16" t="n">
-        <v>64</v>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>19</v>
+      </c>
+      <c r="C11" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/ch2/resource/range.xlsx
+++ b/ch2/resource/range.xlsx
@@ -443,10 +443,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
@@ -454,10 +454,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4">
@@ -465,10 +465,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
@@ -476,10 +476,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C5" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
@@ -487,10 +487,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
@@ -498,10 +498,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C7" t="n">
-        <v>51</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
@@ -509,10 +509,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C8" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -520,10 +520,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="C9" t="n">
-        <v>85</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -531,10 +531,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="C10" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11">
@@ -542,10 +542,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" t="n">
-        <v>17</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
